--- a/biology/Médecine/1729_en_santé_et_médecine/1729_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1729_en_santé_et_médecine/1729_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1729_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1729_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1729 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1729_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1729_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Evénements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 août : Ouverture de la Royal Infirmary of Edinburgh (en) connu comme l'Hôpital pour les malades pauvres (Hospital for the Sick Poor) ou l'Hôpital des médecins (Physicians' Hospital) à Édimbourg (Écosse)[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 août : Ouverture de la Royal Infirmary of Edinburgh (en) connu comme l'Hôpital pour les malades pauvres (Hospital for the Sick Poor) ou l'Hôpital des médecins (Physicians' Hospital) à Édimbourg (Écosse).</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1729_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1729_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>12 janvier : Lazzaro Spallanzani (mort en 1799), biologiste italien.
 17 janvier : Camillo Bonioli (it), (mort en 1791), chirurgien italien.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1729_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1729_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>11 février : Giovanni Girolamo Zannichelli (né en 1662), pharmacologue, chimiste et botaniste italien,
 18 mars : Michael Bernhard Valentini (né en 1657), médecin et collectionneur allemand.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1729_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1729_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ J.D. Comrie, History of Scottish Medicine to 1860, Wellcome Historical Medical Museum, 1932 (lire en ligne), p. 125.
